--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H2">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I2">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J2">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N2">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O2">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P2">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q2">
-        <v>2266.729430292005</v>
+        <v>393.0585187392293</v>
       </c>
       <c r="R2">
-        <v>20400.56487262805</v>
+        <v>3537.526668653063</v>
       </c>
       <c r="S2">
-        <v>0.3939246331794657</v>
+        <v>0.03376769481497836</v>
       </c>
       <c r="T2">
-        <v>0.3939246331794657</v>
+        <v>0.03376769481497836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H3">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I3">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J3">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.568811</v>
       </c>
       <c r="O3">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P3">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q3">
-        <v>31.12907661167422</v>
+        <v>1.587714719167111</v>
       </c>
       <c r="R3">
-        <v>280.161689505068</v>
+        <v>14.289432472504</v>
       </c>
       <c r="S3">
-        <v>0.005409781124114831</v>
+        <v>0.000136400722879774</v>
       </c>
       <c r="T3">
-        <v>0.005409781124114831</v>
+        <v>0.000136400722879774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H4">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I4">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J4">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.819886</v>
       </c>
       <c r="O4">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P4">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q4">
-        <v>58.40780055579644</v>
+        <v>2.979045148478222</v>
       </c>
       <c r="R4">
-        <v>525.670205002168</v>
+        <v>26.811406336304</v>
       </c>
       <c r="S4">
-        <v>0.01015042691081023</v>
+        <v>0.0002559300526967934</v>
       </c>
       <c r="T4">
-        <v>0.01015042691081023</v>
+        <v>0.0002559300526967934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>135.346352</v>
       </c>
       <c r="I5">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J5">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N5">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O5">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P5">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q5">
-        <v>2812.999419756822</v>
+        <v>9563.589789690395</v>
       </c>
       <c r="R5">
-        <v>25316.9947778114</v>
+        <v>86072.30810721355</v>
       </c>
       <c r="S5">
-        <v>0.4888584185449107</v>
+        <v>0.8216089105249996</v>
       </c>
       <c r="T5">
-        <v>0.4888584185449107</v>
+        <v>0.8216089105249996</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>135.346352</v>
       </c>
       <c r="I6">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J6">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.568811</v>
       </c>
       <c r="O6">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P6">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q6">
         <v>38.63102198083023</v>
@@ -818,10 +818,10 @@
         <v>347.6791978274721</v>
       </c>
       <c r="S6">
-        <v>0.00671351020540023</v>
+        <v>0.003318794781051013</v>
       </c>
       <c r="T6">
-        <v>0.00671351020540023</v>
+        <v>0.003318794781051013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>135.346352</v>
       </c>
       <c r="I7">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J7">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.819886</v>
       </c>
       <c r="O7">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P7">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q7">
         <v>72.48377635065246</v>
@@ -880,10 +880,10 @@
         <v>652.3539871558721</v>
       </c>
       <c r="S7">
-        <v>0.01259662694136147</v>
+        <v>0.006227088136130234</v>
       </c>
       <c r="T7">
-        <v>0.01259662694136147</v>
+        <v>0.006227088136130234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>21.932314</v>
       </c>
       <c r="I8">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J8">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.351132</v>
+        <v>211.980367</v>
       </c>
       <c r="N8">
-        <v>187.053396</v>
+        <v>635.9411009999999</v>
       </c>
       <c r="O8">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="P8">
-        <v>0.9620005273240912</v>
+        <v>0.9885149156420702</v>
       </c>
       <c r="Q8">
-        <v>455.8348684264826</v>
+        <v>1549.739990293079</v>
       </c>
       <c r="R8">
-        <v>4102.513815838343</v>
+        <v>13947.65991263771</v>
       </c>
       <c r="S8">
-        <v>0.07921747559971473</v>
+        <v>0.1331383103020922</v>
       </c>
       <c r="T8">
-        <v>0.07921747559971473</v>
+        <v>0.1331383103020922</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>21.932314</v>
       </c>
       <c r="I9">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J9">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.568811</v>
       </c>
       <c r="O9">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159323</v>
       </c>
       <c r="P9">
-        <v>0.01321118776478095</v>
+        <v>0.003992992409159324</v>
       </c>
       <c r="Q9">
         <v>6.25999660651711</v>
@@ -1004,10 +1004,10 @@
         <v>56.339969458654</v>
       </c>
       <c r="S9">
-        <v>0.00108789643526589</v>
+        <v>0.0005377969052285358</v>
       </c>
       <c r="T9">
-        <v>0.00108789643526589</v>
+        <v>0.0005377969052285359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>21.932314</v>
       </c>
       <c r="I10">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J10">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>4.819886</v>
       </c>
       <c r="O10">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="P10">
-        <v>0.02478828491112776</v>
+        <v>0.007492091948770576</v>
       </c>
       <c r="Q10">
         <v>11.74569479957822</v>
@@ -1066,10 +1066,10 @@
         <v>105.711253196204</v>
       </c>
       <c r="S10">
-        <v>0.002041231058956057</v>
+        <v>0.001009073759943548</v>
       </c>
       <c r="T10">
-        <v>0.002041231058956057</v>
+        <v>0.001009073759943548</v>
       </c>
     </row>
   </sheetData>
